--- a/biology/Botanique/Musée_de_botanique_de_Florence/Musée_de_botanique_de_Florence.xlsx
+++ b/biology/Botanique/Musée_de_botanique_de_Florence/Musée_de_botanique_de_Florence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_botanique_de_Florence</t>
+          <t>Musée_de_botanique_de_Florence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée de botanique de Florence est un musée situé à Florence, rue Giorgio La Pira, qui dépend du musée d'histoire naturelle aux multiples établissements disséminés dans la ville. C'est le plus grand de la sorte en Italie, mais il n'est accessible que sur rendez-vous. Il abrite divers herbiers, dont l'un remonte au XVIe siècle, ainsi qu'une riche collection de modèles de plantes et de fruits en cire et une xylothèque.
 L'herbier tropical rassemble la collection la plus importante du monde d'exemplaires originaires d'Éthiopie et de Somalie. On y trouve également certains exemplaires uniques au monde d'espèces végétales éteintes, comme celles des zones paléduviennes de Toscane, avant les campagnes d'assainissement du XIXe siècle. L'institut scientifique de l'herbier central italien se trouve en annexe du musée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_botanique_de_Florence</t>
+          <t>Musée_de_botanique_de_Florence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Herbier des palmiers : 35 000 spécimens issus de la collection du professeur Odoardo Beccari récoltés par lui en Indonésie et en Malaisie ou en partie issus de dons d'autres naturalistes.
 Xylothèque : 7 000 spécimens de bois pour la plupart présentés en forme de planchettes.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_botanique_de_Florence</t>
+          <t>Musée_de_botanique_de_Florence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(it) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en italien intitulé « Museo di storia naturale sezione di botanica » (voir la liste des auteurs).
  Portail de Florence   Portail des musées   Portail de la botanique   Portail de l’histoire de la zoologie et de la botanique                  </t>
